--- a/docs/odh/shr-core-SpecimenContainer-model.xlsx
+++ b/docs/odh/shr-core-SpecimenContainer-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="61">
   <si>
     <t>Path</t>
   </si>
@@ -140,7 +140,7 @@
     <t>shr-core-SpecimenContainer-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -174,17 +174,13 @@
     <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0947611
+    <t>shr-core-SpecimenContainer-model.capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>shr-core-SpecimenContainer-model.capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>Container volume or size.</t>
   </si>
   <si>
@@ -198,7 +194,7 @@
   </si>
   <si>
     <t>Coding {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance-model]]}</t>
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Substance-model]]}</t>
   </si>
   <si>
     <t>Additive associated with container.</t>
@@ -356,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -865,7 +861,7 @@
         <v>36</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -897,7 +893,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -920,13 +916,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -977,7 +973,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -994,7 +990,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1017,13 +1013,13 @@
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1074,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1091,7 +1087,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1114,13 +1110,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1171,7 +1167,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1188,7 +1184,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1214,10 +1210,10 @@
         <v>45</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1268,7 +1264,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
